--- a/SPSITE.xlsx
+++ b/SPSITE.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd.MM.yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -48,7 +48,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -271,7 +271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""INDEXSP:SPSITE"", ""price"", DATE(2006,1,1), DATE(2020,9,19), ""DAILY"")
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""SPSITE"", ""price"", DATE(2006,1,1), DATE(2020,9,19), ""DAILY"")
 "),"Date")</f>
         <v>Date</v>
       </c>
@@ -36170,6 +36170,1506 @@
         <v>522.91</v>
       </c>
     </row>
+    <row r="3591">
+      <c r="A3591" s="3"/>
+    </row>
+    <row r="3592">
+      <c r="A3592" s="3"/>
+    </row>
+    <row r="3593">
+      <c r="A3593" s="3"/>
+    </row>
+    <row r="3594">
+      <c r="A3594" s="3"/>
+    </row>
+    <row r="3595">
+      <c r="A3595" s="3"/>
+    </row>
+    <row r="3596">
+      <c r="A3596" s="3"/>
+    </row>
+    <row r="3597">
+      <c r="A3597" s="3"/>
+    </row>
+    <row r="3598">
+      <c r="A3598" s="3"/>
+    </row>
+    <row r="3599">
+      <c r="A3599" s="3"/>
+    </row>
+    <row r="3600">
+      <c r="A3600" s="3"/>
+    </row>
+    <row r="3601">
+      <c r="A3601" s="3"/>
+    </row>
+    <row r="3602">
+      <c r="A3602" s="3"/>
+    </row>
+    <row r="3603">
+      <c r="A3603" s="3"/>
+    </row>
+    <row r="3604">
+      <c r="A3604" s="3"/>
+    </row>
+    <row r="3605">
+      <c r="A3605" s="3"/>
+    </row>
+    <row r="3606">
+      <c r="A3606" s="3"/>
+    </row>
+    <row r="3607">
+      <c r="A3607" s="3"/>
+    </row>
+    <row r="3608">
+      <c r="A3608" s="3"/>
+    </row>
+    <row r="3609">
+      <c r="A3609" s="3"/>
+    </row>
+    <row r="3610">
+      <c r="A3610" s="3"/>
+    </row>
+    <row r="3611">
+      <c r="A3611" s="3"/>
+    </row>
+    <row r="3612">
+      <c r="A3612" s="3"/>
+    </row>
+    <row r="3613">
+      <c r="A3613" s="3"/>
+    </row>
+    <row r="3614">
+      <c r="A3614" s="3"/>
+    </row>
+    <row r="3615">
+      <c r="A3615" s="3"/>
+    </row>
+    <row r="3616">
+      <c r="A3616" s="3"/>
+    </row>
+    <row r="3617">
+      <c r="A3617" s="3"/>
+    </row>
+    <row r="3618">
+      <c r="A3618" s="3"/>
+    </row>
+    <row r="3619">
+      <c r="A3619" s="3"/>
+    </row>
+    <row r="3620">
+      <c r="A3620" s="3"/>
+    </row>
+    <row r="3621">
+      <c r="A3621" s="3"/>
+    </row>
+    <row r="3622">
+      <c r="A3622" s="3"/>
+    </row>
+    <row r="3623">
+      <c r="A3623" s="3"/>
+    </row>
+    <row r="3624">
+      <c r="A3624" s="3"/>
+    </row>
+    <row r="3625">
+      <c r="A3625" s="3"/>
+    </row>
+    <row r="3626">
+      <c r="A3626" s="3"/>
+    </row>
+    <row r="3627">
+      <c r="A3627" s="3"/>
+    </row>
+    <row r="3628">
+      <c r="A3628" s="3"/>
+    </row>
+    <row r="3629">
+      <c r="A3629" s="3"/>
+    </row>
+    <row r="3630">
+      <c r="A3630" s="3"/>
+    </row>
+    <row r="3631">
+      <c r="A3631" s="3"/>
+    </row>
+    <row r="3632">
+      <c r="A3632" s="3"/>
+    </row>
+    <row r="3633">
+      <c r="A3633" s="3"/>
+    </row>
+    <row r="3634">
+      <c r="A3634" s="3"/>
+    </row>
+    <row r="3635">
+      <c r="A3635" s="3"/>
+    </row>
+    <row r="3636">
+      <c r="A3636" s="3"/>
+    </row>
+    <row r="3637">
+      <c r="A3637" s="3"/>
+    </row>
+    <row r="3638">
+      <c r="A3638" s="3"/>
+    </row>
+    <row r="3639">
+      <c r="A3639" s="3"/>
+    </row>
+    <row r="3640">
+      <c r="A3640" s="3"/>
+    </row>
+    <row r="3641">
+      <c r="A3641" s="3"/>
+    </row>
+    <row r="3642">
+      <c r="A3642" s="3"/>
+    </row>
+    <row r="3643">
+      <c r="A3643" s="3"/>
+    </row>
+    <row r="3644">
+      <c r="A3644" s="3"/>
+    </row>
+    <row r="3645">
+      <c r="A3645" s="3"/>
+    </row>
+    <row r="3646">
+      <c r="A3646" s="3"/>
+    </row>
+    <row r="3647">
+      <c r="A3647" s="3"/>
+    </row>
+    <row r="3648">
+      <c r="A3648" s="3"/>
+    </row>
+    <row r="3649">
+      <c r="A3649" s="3"/>
+    </row>
+    <row r="3650">
+      <c r="A3650" s="3"/>
+    </row>
+    <row r="3651">
+      <c r="A3651" s="3"/>
+    </row>
+    <row r="3652">
+      <c r="A3652" s="3"/>
+    </row>
+    <row r="3653">
+      <c r="A3653" s="3"/>
+    </row>
+    <row r="3654">
+      <c r="A3654" s="3"/>
+    </row>
+    <row r="3655">
+      <c r="A3655" s="3"/>
+    </row>
+    <row r="3656">
+      <c r="A3656" s="3"/>
+    </row>
+    <row r="3657">
+      <c r="A3657" s="3"/>
+    </row>
+    <row r="3658">
+      <c r="A3658" s="3"/>
+    </row>
+    <row r="3659">
+      <c r="A3659" s="3"/>
+    </row>
+    <row r="3660">
+      <c r="A3660" s="3"/>
+    </row>
+    <row r="3661">
+      <c r="A3661" s="3"/>
+    </row>
+    <row r="3662">
+      <c r="A3662" s="3"/>
+    </row>
+    <row r="3663">
+      <c r="A3663" s="3"/>
+    </row>
+    <row r="3664">
+      <c r="A3664" s="3"/>
+    </row>
+    <row r="3665">
+      <c r="A3665" s="3"/>
+    </row>
+    <row r="3666">
+      <c r="A3666" s="3"/>
+    </row>
+    <row r="3667">
+      <c r="A3667" s="3"/>
+    </row>
+    <row r="3668">
+      <c r="A3668" s="3"/>
+    </row>
+    <row r="3669">
+      <c r="A3669" s="3"/>
+    </row>
+    <row r="3670">
+      <c r="A3670" s="3"/>
+    </row>
+    <row r="3671">
+      <c r="A3671" s="3"/>
+    </row>
+    <row r="3672">
+      <c r="A3672" s="3"/>
+    </row>
+    <row r="3673">
+      <c r="A3673" s="3"/>
+    </row>
+    <row r="3674">
+      <c r="A3674" s="3"/>
+    </row>
+    <row r="3675">
+      <c r="A3675" s="3"/>
+    </row>
+    <row r="3676">
+      <c r="A3676" s="3"/>
+    </row>
+    <row r="3677">
+      <c r="A3677" s="3"/>
+    </row>
+    <row r="3678">
+      <c r="A3678" s="3"/>
+    </row>
+    <row r="3679">
+      <c r="A3679" s="3"/>
+    </row>
+    <row r="3680">
+      <c r="A3680" s="3"/>
+    </row>
+    <row r="3681">
+      <c r="A3681" s="3"/>
+    </row>
+    <row r="3682">
+      <c r="A3682" s="3"/>
+    </row>
+    <row r="3683">
+      <c r="A3683" s="3"/>
+    </row>
+    <row r="3684">
+      <c r="A3684" s="3"/>
+    </row>
+    <row r="3685">
+      <c r="A3685" s="3"/>
+    </row>
+    <row r="3686">
+      <c r="A3686" s="3"/>
+    </row>
+    <row r="3687">
+      <c r="A3687" s="3"/>
+    </row>
+    <row r="3688">
+      <c r="A3688" s="3"/>
+    </row>
+    <row r="3689">
+      <c r="A3689" s="3"/>
+    </row>
+    <row r="3690">
+      <c r="A3690" s="3"/>
+    </row>
+    <row r="3691">
+      <c r="A3691" s="3"/>
+    </row>
+    <row r="3692">
+      <c r="A3692" s="3"/>
+    </row>
+    <row r="3693">
+      <c r="A3693" s="3"/>
+    </row>
+    <row r="3694">
+      <c r="A3694" s="3"/>
+    </row>
+    <row r="3695">
+      <c r="A3695" s="3"/>
+    </row>
+    <row r="3696">
+      <c r="A3696" s="3"/>
+    </row>
+    <row r="3697">
+      <c r="A3697" s="3"/>
+    </row>
+    <row r="3698">
+      <c r="A3698" s="3"/>
+    </row>
+    <row r="3699">
+      <c r="A3699" s="3"/>
+    </row>
+    <row r="3700">
+      <c r="A3700" s="3"/>
+    </row>
+    <row r="3701">
+      <c r="A3701" s="3"/>
+    </row>
+    <row r="3702">
+      <c r="A3702" s="3"/>
+    </row>
+    <row r="3703">
+      <c r="A3703" s="3"/>
+    </row>
+    <row r="3704">
+      <c r="A3704" s="3"/>
+    </row>
+    <row r="3705">
+      <c r="A3705" s="3"/>
+    </row>
+    <row r="3706">
+      <c r="A3706" s="3"/>
+    </row>
+    <row r="3707">
+      <c r="A3707" s="3"/>
+    </row>
+    <row r="3708">
+      <c r="A3708" s="3"/>
+    </row>
+    <row r="3709">
+      <c r="A3709" s="3"/>
+    </row>
+    <row r="3710">
+      <c r="A3710" s="3"/>
+    </row>
+    <row r="3711">
+      <c r="A3711" s="3"/>
+    </row>
+    <row r="3712">
+      <c r="A3712" s="3"/>
+    </row>
+    <row r="3713">
+      <c r="A3713" s="3"/>
+    </row>
+    <row r="3714">
+      <c r="A3714" s="3"/>
+    </row>
+    <row r="3715">
+      <c r="A3715" s="3"/>
+    </row>
+    <row r="3716">
+      <c r="A3716" s="3"/>
+    </row>
+    <row r="3717">
+      <c r="A3717" s="3"/>
+    </row>
+    <row r="3718">
+      <c r="A3718" s="3"/>
+    </row>
+    <row r="3719">
+      <c r="A3719" s="3"/>
+    </row>
+    <row r="3720">
+      <c r="A3720" s="3"/>
+    </row>
+    <row r="3721">
+      <c r="A3721" s="3"/>
+    </row>
+    <row r="3722">
+      <c r="A3722" s="3"/>
+    </row>
+    <row r="3723">
+      <c r="A3723" s="3"/>
+    </row>
+    <row r="3724">
+      <c r="A3724" s="3"/>
+    </row>
+    <row r="3725">
+      <c r="A3725" s="3"/>
+    </row>
+    <row r="3726">
+      <c r="A3726" s="3"/>
+    </row>
+    <row r="3727">
+      <c r="A3727" s="3"/>
+    </row>
+    <row r="3728">
+      <c r="A3728" s="3"/>
+    </row>
+    <row r="3729">
+      <c r="A3729" s="3"/>
+    </row>
+    <row r="3730">
+      <c r="A3730" s="3"/>
+    </row>
+    <row r="3731">
+      <c r="A3731" s="3"/>
+    </row>
+    <row r="3732">
+      <c r="A3732" s="3"/>
+    </row>
+    <row r="3733">
+      <c r="A3733" s="3"/>
+    </row>
+    <row r="3734">
+      <c r="A3734" s="3"/>
+    </row>
+    <row r="3735">
+      <c r="A3735" s="3"/>
+    </row>
+    <row r="3736">
+      <c r="A3736" s="3"/>
+    </row>
+    <row r="3737">
+      <c r="A3737" s="3"/>
+    </row>
+    <row r="3738">
+      <c r="A3738" s="3"/>
+    </row>
+    <row r="3739">
+      <c r="A3739" s="3"/>
+    </row>
+    <row r="3740">
+      <c r="A3740" s="3"/>
+    </row>
+    <row r="3741">
+      <c r="A3741" s="3"/>
+    </row>
+    <row r="3742">
+      <c r="A3742" s="3"/>
+    </row>
+    <row r="3743">
+      <c r="A3743" s="3"/>
+    </row>
+    <row r="3744">
+      <c r="A3744" s="3"/>
+    </row>
+    <row r="3745">
+      <c r="A3745" s="3"/>
+    </row>
+    <row r="3746">
+      <c r="A3746" s="3"/>
+    </row>
+    <row r="3747">
+      <c r="A3747" s="3"/>
+    </row>
+    <row r="3748">
+      <c r="A3748" s="3"/>
+    </row>
+    <row r="3749">
+      <c r="A3749" s="3"/>
+    </row>
+    <row r="3750">
+      <c r="A3750" s="3"/>
+    </row>
+    <row r="3751">
+      <c r="A3751" s="3"/>
+    </row>
+    <row r="3752">
+      <c r="A3752" s="3"/>
+    </row>
+    <row r="3753">
+      <c r="A3753" s="3"/>
+    </row>
+    <row r="3754">
+      <c r="A3754" s="3"/>
+    </row>
+    <row r="3755">
+      <c r="A3755" s="3"/>
+    </row>
+    <row r="3756">
+      <c r="A3756" s="3"/>
+    </row>
+    <row r="3757">
+      <c r="A3757" s="3"/>
+    </row>
+    <row r="3758">
+      <c r="A3758" s="3"/>
+    </row>
+    <row r="3759">
+      <c r="A3759" s="3"/>
+    </row>
+    <row r="3760">
+      <c r="A3760" s="3"/>
+    </row>
+    <row r="3761">
+      <c r="A3761" s="3"/>
+    </row>
+    <row r="3762">
+      <c r="A3762" s="3"/>
+    </row>
+    <row r="3763">
+      <c r="A3763" s="3"/>
+    </row>
+    <row r="3764">
+      <c r="A3764" s="3"/>
+    </row>
+    <row r="3765">
+      <c r="A3765" s="3"/>
+    </row>
+    <row r="3766">
+      <c r="A3766" s="3"/>
+    </row>
+    <row r="3767">
+      <c r="A3767" s="3"/>
+    </row>
+    <row r="3768">
+      <c r="A3768" s="3"/>
+    </row>
+    <row r="3769">
+      <c r="A3769" s="3"/>
+    </row>
+    <row r="3770">
+      <c r="A3770" s="3"/>
+    </row>
+    <row r="3771">
+      <c r="A3771" s="3"/>
+    </row>
+    <row r="3772">
+      <c r="A3772" s="3"/>
+    </row>
+    <row r="3773">
+      <c r="A3773" s="3"/>
+    </row>
+    <row r="3774">
+      <c r="A3774" s="3"/>
+    </row>
+    <row r="3775">
+      <c r="A3775" s="3"/>
+    </row>
+    <row r="3776">
+      <c r="A3776" s="3"/>
+    </row>
+    <row r="3777">
+      <c r="A3777" s="3"/>
+    </row>
+    <row r="3778">
+      <c r="A3778" s="3"/>
+    </row>
+    <row r="3779">
+      <c r="A3779" s="3"/>
+    </row>
+    <row r="3780">
+      <c r="A3780" s="3"/>
+    </row>
+    <row r="3781">
+      <c r="A3781" s="3"/>
+    </row>
+    <row r="3782">
+      <c r="A3782" s="3"/>
+    </row>
+    <row r="3783">
+      <c r="A3783" s="3"/>
+    </row>
+    <row r="3784">
+      <c r="A3784" s="3"/>
+    </row>
+    <row r="3785">
+      <c r="A3785" s="3"/>
+    </row>
+    <row r="3786">
+      <c r="A3786" s="3"/>
+    </row>
+    <row r="3787">
+      <c r="A3787" s="3"/>
+    </row>
+    <row r="3788">
+      <c r="A3788" s="3"/>
+    </row>
+    <row r="3789">
+      <c r="A3789" s="3"/>
+    </row>
+    <row r="3790">
+      <c r="A3790" s="3"/>
+    </row>
+    <row r="3791">
+      <c r="A3791" s="3"/>
+    </row>
+    <row r="3792">
+      <c r="A3792" s="3"/>
+    </row>
+    <row r="3793">
+      <c r="A3793" s="3"/>
+    </row>
+    <row r="3794">
+      <c r="A3794" s="3"/>
+    </row>
+    <row r="3795">
+      <c r="A3795" s="3"/>
+    </row>
+    <row r="3796">
+      <c r="A3796" s="3"/>
+    </row>
+    <row r="3797">
+      <c r="A3797" s="3"/>
+    </row>
+    <row r="3798">
+      <c r="A3798" s="3"/>
+    </row>
+    <row r="3799">
+      <c r="A3799" s="3"/>
+    </row>
+    <row r="3800">
+      <c r="A3800" s="3"/>
+    </row>
+    <row r="3801">
+      <c r="A3801" s="3"/>
+    </row>
+    <row r="3802">
+      <c r="A3802" s="3"/>
+    </row>
+    <row r="3803">
+      <c r="A3803" s="3"/>
+    </row>
+    <row r="3804">
+      <c r="A3804" s="3"/>
+    </row>
+    <row r="3805">
+      <c r="A3805" s="3"/>
+    </row>
+    <row r="3806">
+      <c r="A3806" s="3"/>
+    </row>
+    <row r="3807">
+      <c r="A3807" s="3"/>
+    </row>
+    <row r="3808">
+      <c r="A3808" s="3"/>
+    </row>
+    <row r="3809">
+      <c r="A3809" s="3"/>
+    </row>
+    <row r="3810">
+      <c r="A3810" s="3"/>
+    </row>
+    <row r="3811">
+      <c r="A3811" s="3"/>
+    </row>
+    <row r="3812">
+      <c r="A3812" s="3"/>
+    </row>
+    <row r="3813">
+      <c r="A3813" s="3"/>
+    </row>
+    <row r="3814">
+      <c r="A3814" s="3"/>
+    </row>
+    <row r="3815">
+      <c r="A3815" s="3"/>
+    </row>
+    <row r="3816">
+      <c r="A3816" s="3"/>
+    </row>
+    <row r="3817">
+      <c r="A3817" s="3"/>
+    </row>
+    <row r="3818">
+      <c r="A3818" s="3"/>
+    </row>
+    <row r="3819">
+      <c r="A3819" s="3"/>
+    </row>
+    <row r="3820">
+      <c r="A3820" s="3"/>
+    </row>
+    <row r="3821">
+      <c r="A3821" s="3"/>
+    </row>
+    <row r="3822">
+      <c r="A3822" s="3"/>
+    </row>
+    <row r="3823">
+      <c r="A3823" s="3"/>
+    </row>
+    <row r="3824">
+      <c r="A3824" s="3"/>
+    </row>
+    <row r="3825">
+      <c r="A3825" s="3"/>
+    </row>
+    <row r="3826">
+      <c r="A3826" s="3"/>
+    </row>
+    <row r="3827">
+      <c r="A3827" s="3"/>
+    </row>
+    <row r="3828">
+      <c r="A3828" s="3"/>
+    </row>
+    <row r="3829">
+      <c r="A3829" s="3"/>
+    </row>
+    <row r="3830">
+      <c r="A3830" s="3"/>
+    </row>
+    <row r="3831">
+      <c r="A3831" s="3"/>
+    </row>
+    <row r="3832">
+      <c r="A3832" s="3"/>
+    </row>
+    <row r="3833">
+      <c r="A3833" s="3"/>
+    </row>
+    <row r="3834">
+      <c r="A3834" s="3"/>
+    </row>
+    <row r="3835">
+      <c r="A3835" s="3"/>
+    </row>
+    <row r="3836">
+      <c r="A3836" s="3"/>
+    </row>
+    <row r="3837">
+      <c r="A3837" s="3"/>
+    </row>
+    <row r="3838">
+      <c r="A3838" s="3"/>
+    </row>
+    <row r="3839">
+      <c r="A3839" s="3"/>
+    </row>
+    <row r="3840">
+      <c r="A3840" s="3"/>
+    </row>
+    <row r="3841">
+      <c r="A3841" s="3"/>
+    </row>
+    <row r="3842">
+      <c r="A3842" s="3"/>
+    </row>
+    <row r="3843">
+      <c r="A3843" s="3"/>
+    </row>
+    <row r="3844">
+      <c r="A3844" s="3"/>
+    </row>
+    <row r="3845">
+      <c r="A3845" s="3"/>
+    </row>
+    <row r="3846">
+      <c r="A3846" s="3"/>
+    </row>
+    <row r="3847">
+      <c r="A3847" s="3"/>
+    </row>
+    <row r="3848">
+      <c r="A3848" s="3"/>
+    </row>
+    <row r="3849">
+      <c r="A3849" s="3"/>
+    </row>
+    <row r="3850">
+      <c r="A3850" s="3"/>
+    </row>
+    <row r="3851">
+      <c r="A3851" s="3"/>
+    </row>
+    <row r="3852">
+      <c r="A3852" s="3"/>
+    </row>
+    <row r="3853">
+      <c r="A3853" s="3"/>
+    </row>
+    <row r="3854">
+      <c r="A3854" s="3"/>
+    </row>
+    <row r="3855">
+      <c r="A3855" s="3"/>
+    </row>
+    <row r="3856">
+      <c r="A3856" s="3"/>
+    </row>
+    <row r="3857">
+      <c r="A3857" s="3"/>
+    </row>
+    <row r="3858">
+      <c r="A3858" s="3"/>
+    </row>
+    <row r="3859">
+      <c r="A3859" s="3"/>
+    </row>
+    <row r="3860">
+      <c r="A3860" s="3"/>
+    </row>
+    <row r="3861">
+      <c r="A3861" s="3"/>
+    </row>
+    <row r="3862">
+      <c r="A3862" s="3"/>
+    </row>
+    <row r="3863">
+      <c r="A3863" s="3"/>
+    </row>
+    <row r="3864">
+      <c r="A3864" s="3"/>
+    </row>
+    <row r="3865">
+      <c r="A3865" s="3"/>
+    </row>
+    <row r="3866">
+      <c r="A3866" s="3"/>
+    </row>
+    <row r="3867">
+      <c r="A3867" s="3"/>
+    </row>
+    <row r="3868">
+      <c r="A3868" s="3"/>
+    </row>
+    <row r="3869">
+      <c r="A3869" s="3"/>
+    </row>
+    <row r="3870">
+      <c r="A3870" s="3"/>
+    </row>
+    <row r="3871">
+      <c r="A3871" s="3"/>
+    </row>
+    <row r="3872">
+      <c r="A3872" s="3"/>
+    </row>
+    <row r="3873">
+      <c r="A3873" s="3"/>
+    </row>
+    <row r="3874">
+      <c r="A3874" s="3"/>
+    </row>
+    <row r="3875">
+      <c r="A3875" s="3"/>
+    </row>
+    <row r="3876">
+      <c r="A3876" s="3"/>
+    </row>
+    <row r="3877">
+      <c r="A3877" s="3"/>
+    </row>
+    <row r="3878">
+      <c r="A3878" s="3"/>
+    </row>
+    <row r="3879">
+      <c r="A3879" s="3"/>
+    </row>
+    <row r="3880">
+      <c r="A3880" s="3"/>
+    </row>
+    <row r="3881">
+      <c r="A3881" s="3"/>
+    </row>
+    <row r="3882">
+      <c r="A3882" s="3"/>
+    </row>
+    <row r="3883">
+      <c r="A3883" s="3"/>
+    </row>
+    <row r="3884">
+      <c r="A3884" s="3"/>
+    </row>
+    <row r="3885">
+      <c r="A3885" s="3"/>
+    </row>
+    <row r="3886">
+      <c r="A3886" s="3"/>
+    </row>
+    <row r="3887">
+      <c r="A3887" s="3"/>
+    </row>
+    <row r="3888">
+      <c r="A3888" s="3"/>
+    </row>
+    <row r="3889">
+      <c r="A3889" s="3"/>
+    </row>
+    <row r="3890">
+      <c r="A3890" s="3"/>
+    </row>
+    <row r="3891">
+      <c r="A3891" s="3"/>
+    </row>
+    <row r="3892">
+      <c r="A3892" s="3"/>
+    </row>
+    <row r="3893">
+      <c r="A3893" s="3"/>
+    </row>
+    <row r="3894">
+      <c r="A3894" s="3"/>
+    </row>
+    <row r="3895">
+      <c r="A3895" s="3"/>
+    </row>
+    <row r="3896">
+      <c r="A3896" s="3"/>
+    </row>
+    <row r="3897">
+      <c r="A3897" s="3"/>
+    </row>
+    <row r="3898">
+      <c r="A3898" s="3"/>
+    </row>
+    <row r="3899">
+      <c r="A3899" s="3"/>
+    </row>
+    <row r="3900">
+      <c r="A3900" s="3"/>
+    </row>
+    <row r="3901">
+      <c r="A3901" s="3"/>
+    </row>
+    <row r="3902">
+      <c r="A3902" s="3"/>
+    </row>
+    <row r="3903">
+      <c r="A3903" s="3"/>
+    </row>
+    <row r="3904">
+      <c r="A3904" s="3"/>
+    </row>
+    <row r="3905">
+      <c r="A3905" s="3"/>
+    </row>
+    <row r="3906">
+      <c r="A3906" s="3"/>
+    </row>
+    <row r="3907">
+      <c r="A3907" s="3"/>
+    </row>
+    <row r="3908">
+      <c r="A3908" s="3"/>
+    </row>
+    <row r="3909">
+      <c r="A3909" s="3"/>
+    </row>
+    <row r="3910">
+      <c r="A3910" s="3"/>
+    </row>
+    <row r="3911">
+      <c r="A3911" s="3"/>
+    </row>
+    <row r="3912">
+      <c r="A3912" s="3"/>
+    </row>
+    <row r="3913">
+      <c r="A3913" s="3"/>
+    </row>
+    <row r="3914">
+      <c r="A3914" s="3"/>
+    </row>
+    <row r="3915">
+      <c r="A3915" s="3"/>
+    </row>
+    <row r="3916">
+      <c r="A3916" s="3"/>
+    </row>
+    <row r="3917">
+      <c r="A3917" s="3"/>
+    </row>
+    <row r="3918">
+      <c r="A3918" s="3"/>
+    </row>
+    <row r="3919">
+      <c r="A3919" s="3"/>
+    </row>
+    <row r="3920">
+      <c r="A3920" s="3"/>
+    </row>
+    <row r="3921">
+      <c r="A3921" s="3"/>
+    </row>
+    <row r="3922">
+      <c r="A3922" s="3"/>
+    </row>
+    <row r="3923">
+      <c r="A3923" s="3"/>
+    </row>
+    <row r="3924">
+      <c r="A3924" s="3"/>
+    </row>
+    <row r="3925">
+      <c r="A3925" s="3"/>
+    </row>
+    <row r="3926">
+      <c r="A3926" s="3"/>
+    </row>
+    <row r="3927">
+      <c r="A3927" s="3"/>
+    </row>
+    <row r="3928">
+      <c r="A3928" s="3"/>
+    </row>
+    <row r="3929">
+      <c r="A3929" s="3"/>
+    </row>
+    <row r="3930">
+      <c r="A3930" s="3"/>
+    </row>
+    <row r="3931">
+      <c r="A3931" s="3"/>
+    </row>
+    <row r="3932">
+      <c r="A3932" s="3"/>
+    </row>
+    <row r="3933">
+      <c r="A3933" s="3"/>
+    </row>
+    <row r="3934">
+      <c r="A3934" s="3"/>
+    </row>
+    <row r="3935">
+      <c r="A3935" s="3"/>
+    </row>
+    <row r="3936">
+      <c r="A3936" s="3"/>
+    </row>
+    <row r="3937">
+      <c r="A3937" s="3"/>
+    </row>
+    <row r="3938">
+      <c r="A3938" s="3"/>
+    </row>
+    <row r="3939">
+      <c r="A3939" s="3"/>
+    </row>
+    <row r="3940">
+      <c r="A3940" s="3"/>
+    </row>
+    <row r="3941">
+      <c r="A3941" s="3"/>
+    </row>
+    <row r="3942">
+      <c r="A3942" s="3"/>
+    </row>
+    <row r="3943">
+      <c r="A3943" s="3"/>
+    </row>
+    <row r="3944">
+      <c r="A3944" s="3"/>
+    </row>
+    <row r="3945">
+      <c r="A3945" s="3"/>
+    </row>
+    <row r="3946">
+      <c r="A3946" s="3"/>
+    </row>
+    <row r="3947">
+      <c r="A3947" s="3"/>
+    </row>
+    <row r="3948">
+      <c r="A3948" s="3"/>
+    </row>
+    <row r="3949">
+      <c r="A3949" s="3"/>
+    </row>
+    <row r="3950">
+      <c r="A3950" s="3"/>
+    </row>
+    <row r="3951">
+      <c r="A3951" s="3"/>
+    </row>
+    <row r="3952">
+      <c r="A3952" s="3"/>
+    </row>
+    <row r="3953">
+      <c r="A3953" s="3"/>
+    </row>
+    <row r="3954">
+      <c r="A3954" s="3"/>
+    </row>
+    <row r="3955">
+      <c r="A3955" s="3"/>
+    </row>
+    <row r="3956">
+      <c r="A3956" s="3"/>
+    </row>
+    <row r="3957">
+      <c r="A3957" s="3"/>
+    </row>
+    <row r="3958">
+      <c r="A3958" s="3"/>
+    </row>
+    <row r="3959">
+      <c r="A3959" s="3"/>
+    </row>
+    <row r="3960">
+      <c r="A3960" s="3"/>
+    </row>
+    <row r="3961">
+      <c r="A3961" s="3"/>
+    </row>
+    <row r="3962">
+      <c r="A3962" s="3"/>
+    </row>
+    <row r="3963">
+      <c r="A3963" s="3"/>
+    </row>
+    <row r="3964">
+      <c r="A3964" s="3"/>
+    </row>
+    <row r="3965">
+      <c r="A3965" s="3"/>
+    </row>
+    <row r="3966">
+      <c r="A3966" s="3"/>
+    </row>
+    <row r="3967">
+      <c r="A3967" s="3"/>
+    </row>
+    <row r="3968">
+      <c r="A3968" s="3"/>
+    </row>
+    <row r="3969">
+      <c r="A3969" s="3"/>
+    </row>
+    <row r="3970">
+      <c r="A3970" s="3"/>
+    </row>
+    <row r="3971">
+      <c r="A3971" s="3"/>
+    </row>
+    <row r="3972">
+      <c r="A3972" s="3"/>
+    </row>
+    <row r="3973">
+      <c r="A3973" s="3"/>
+    </row>
+    <row r="3974">
+      <c r="A3974" s="3"/>
+    </row>
+    <row r="3975">
+      <c r="A3975" s="3"/>
+    </row>
+    <row r="3976">
+      <c r="A3976" s="3"/>
+    </row>
+    <row r="3977">
+      <c r="A3977" s="3"/>
+    </row>
+    <row r="3978">
+      <c r="A3978" s="3"/>
+    </row>
+    <row r="3979">
+      <c r="A3979" s="3"/>
+    </row>
+    <row r="3980">
+      <c r="A3980" s="3"/>
+    </row>
+    <row r="3981">
+      <c r="A3981" s="3"/>
+    </row>
+    <row r="3982">
+      <c r="A3982" s="3"/>
+    </row>
+    <row r="3983">
+      <c r="A3983" s="3"/>
+    </row>
+    <row r="3984">
+      <c r="A3984" s="3"/>
+    </row>
+    <row r="3985">
+      <c r="A3985" s="3"/>
+    </row>
+    <row r="3986">
+      <c r="A3986" s="3"/>
+    </row>
+    <row r="3987">
+      <c r="A3987" s="3"/>
+    </row>
+    <row r="3988">
+      <c r="A3988" s="3"/>
+    </row>
+    <row r="3989">
+      <c r="A3989" s="3"/>
+    </row>
+    <row r="3990">
+      <c r="A3990" s="3"/>
+    </row>
+    <row r="3991">
+      <c r="A3991" s="3"/>
+    </row>
+    <row r="3992">
+      <c r="A3992" s="3"/>
+    </row>
+    <row r="3993">
+      <c r="A3993" s="3"/>
+    </row>
+    <row r="3994">
+      <c r="A3994" s="3"/>
+    </row>
+    <row r="3995">
+      <c r="A3995" s="3"/>
+    </row>
+    <row r="3996">
+      <c r="A3996" s="3"/>
+    </row>
+    <row r="3997">
+      <c r="A3997" s="3"/>
+    </row>
+    <row r="3998">
+      <c r="A3998" s="3"/>
+    </row>
+    <row r="3999">
+      <c r="A3999" s="3"/>
+    </row>
+    <row r="4000">
+      <c r="A4000" s="3"/>
+    </row>
+    <row r="4001">
+      <c r="A4001" s="3"/>
+    </row>
+    <row r="4002">
+      <c r="A4002" s="3"/>
+    </row>
+    <row r="4003">
+      <c r="A4003" s="3"/>
+    </row>
+    <row r="4004">
+      <c r="A4004" s="3"/>
+    </row>
+    <row r="4005">
+      <c r="A4005" s="3"/>
+    </row>
+    <row r="4006">
+      <c r="A4006" s="3"/>
+    </row>
+    <row r="4007">
+      <c r="A4007" s="3"/>
+    </row>
+    <row r="4008">
+      <c r="A4008" s="3"/>
+    </row>
+    <row r="4009">
+      <c r="A4009" s="3"/>
+    </row>
+    <row r="4010">
+      <c r="A4010" s="3"/>
+    </row>
+    <row r="4011">
+      <c r="A4011" s="3"/>
+    </row>
+    <row r="4012">
+      <c r="A4012" s="3"/>
+    </row>
+    <row r="4013">
+      <c r="A4013" s="3"/>
+    </row>
+    <row r="4014">
+      <c r="A4014" s="3"/>
+    </row>
+    <row r="4015">
+      <c r="A4015" s="3"/>
+    </row>
+    <row r="4016">
+      <c r="A4016" s="3"/>
+    </row>
+    <row r="4017">
+      <c r="A4017" s="3"/>
+    </row>
+    <row r="4018">
+      <c r="A4018" s="3"/>
+    </row>
+    <row r="4019">
+      <c r="A4019" s="3"/>
+    </row>
+    <row r="4020">
+      <c r="A4020" s="3"/>
+    </row>
+    <row r="4021">
+      <c r="A4021" s="3"/>
+    </row>
+    <row r="4022">
+      <c r="A4022" s="3"/>
+    </row>
+    <row r="4023">
+      <c r="A4023" s="3"/>
+    </row>
+    <row r="4024">
+      <c r="A4024" s="3"/>
+    </row>
+    <row r="4025">
+      <c r="A4025" s="3"/>
+    </row>
+    <row r="4026">
+      <c r="A4026" s="3"/>
+    </row>
+    <row r="4027">
+      <c r="A4027" s="3"/>
+    </row>
+    <row r="4028">
+      <c r="A4028" s="3"/>
+    </row>
+    <row r="4029">
+      <c r="A4029" s="3"/>
+    </row>
+    <row r="4030">
+      <c r="A4030" s="3"/>
+    </row>
+    <row r="4031">
+      <c r="A4031" s="3"/>
+    </row>
+    <row r="4032">
+      <c r="A4032" s="3"/>
+    </row>
+    <row r="4033">
+      <c r="A4033" s="3"/>
+    </row>
+    <row r="4034">
+      <c r="A4034" s="3"/>
+    </row>
+    <row r="4035">
+      <c r="A4035" s="3"/>
+    </row>
+    <row r="4036">
+      <c r="A4036" s="3"/>
+    </row>
+    <row r="4037">
+      <c r="A4037" s="3"/>
+    </row>
+    <row r="4038">
+      <c r="A4038" s="3"/>
+    </row>
+    <row r="4039">
+      <c r="A4039" s="3"/>
+    </row>
+    <row r="4040">
+      <c r="A4040" s="3"/>
+    </row>
+    <row r="4041">
+      <c r="A4041" s="3"/>
+    </row>
+    <row r="4042">
+      <c r="A4042" s="3"/>
+    </row>
+    <row r="4043">
+      <c r="A4043" s="3"/>
+    </row>
+    <row r="4044">
+      <c r="A4044" s="3"/>
+    </row>
+    <row r="4045">
+      <c r="A4045" s="3"/>
+    </row>
+    <row r="4046">
+      <c r="A4046" s="3"/>
+    </row>
+    <row r="4047">
+      <c r="A4047" s="3"/>
+    </row>
+    <row r="4048">
+      <c r="A4048" s="3"/>
+    </row>
+    <row r="4049">
+      <c r="A4049" s="3"/>
+    </row>
+    <row r="4050">
+      <c r="A4050" s="3"/>
+    </row>
+    <row r="4051">
+      <c r="A4051" s="3"/>
+    </row>
+    <row r="4052">
+      <c r="A4052" s="3"/>
+    </row>
+    <row r="4053">
+      <c r="A4053" s="3"/>
+    </row>
+    <row r="4054">
+      <c r="A4054" s="3"/>
+    </row>
+    <row r="4055">
+      <c r="A4055" s="3"/>
+    </row>
+    <row r="4056">
+      <c r="A4056" s="3"/>
+    </row>
+    <row r="4057">
+      <c r="A4057" s="3"/>
+    </row>
+    <row r="4058">
+      <c r="A4058" s="3"/>
+    </row>
+    <row r="4059">
+      <c r="A4059" s="3"/>
+    </row>
+    <row r="4060">
+      <c r="A4060" s="3"/>
+    </row>
+    <row r="4061">
+      <c r="A4061" s="3"/>
+    </row>
+    <row r="4062">
+      <c r="A4062" s="3"/>
+    </row>
+    <row r="4063">
+      <c r="A4063" s="3"/>
+    </row>
+    <row r="4064">
+      <c r="A4064" s="3"/>
+    </row>
+    <row r="4065">
+      <c r="A4065" s="3"/>
+    </row>
+    <row r="4066">
+      <c r="A4066" s="3"/>
+    </row>
+    <row r="4067">
+      <c r="A4067" s="3"/>
+    </row>
+    <row r="4068">
+      <c r="A4068" s="3"/>
+    </row>
+    <row r="4069">
+      <c r="A4069" s="3"/>
+    </row>
+    <row r="4070">
+      <c r="A4070" s="3"/>
+    </row>
+    <row r="4071">
+      <c r="A4071" s="3"/>
+    </row>
+    <row r="4072">
+      <c r="A4072" s="3"/>
+    </row>
+    <row r="4073">
+      <c r="A4073" s="3"/>
+    </row>
+    <row r="4074">
+      <c r="A4074" s="3"/>
+    </row>
+    <row r="4075">
+      <c r="A4075" s="3"/>
+    </row>
+    <row r="4076">
+      <c r="A4076" s="3"/>
+    </row>
+    <row r="4077">
+      <c r="A4077" s="3"/>
+    </row>
+    <row r="4078">
+      <c r="A4078" s="3"/>
+    </row>
+    <row r="4079">
+      <c r="A4079" s="3"/>
+    </row>
+    <row r="4080">
+      <c r="A4080" s="3"/>
+    </row>
+    <row r="4081">
+      <c r="A4081" s="3"/>
+    </row>
+    <row r="4082">
+      <c r="A4082" s="3"/>
+    </row>
+    <row r="4083">
+      <c r="A4083" s="3"/>
+    </row>
+    <row r="4084">
+      <c r="A4084" s="3"/>
+    </row>
+    <row r="4085">
+      <c r="A4085" s="3"/>
+    </row>
+    <row r="4086">
+      <c r="A4086" s="3"/>
+    </row>
+    <row r="4087">
+      <c r="A4087" s="3"/>
+    </row>
+    <row r="4088">
+      <c r="A4088" s="3"/>
+    </row>
+    <row r="4089">
+      <c r="A4089" s="3"/>
+    </row>
+    <row r="4090">
+      <c r="A4090" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
